--- a/Code/Results/Cases/Case_4_118/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_118/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.64452171646847</v>
+        <v>19.3297503425517</v>
       </c>
       <c r="C2">
-        <v>5.879720093023864</v>
+        <v>5.569451790786747</v>
       </c>
       <c r="D2">
-        <v>9.357583530032656</v>
+        <v>13.88280405473222</v>
       </c>
       <c r="E2">
-        <v>8.763705146439102</v>
+        <v>14.11337271956395</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>74.24727415001833</v>
+        <v>81.47050279165461</v>
       </c>
       <c r="H2">
-        <v>21.31939442981292</v>
+        <v>27.25689947368624</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.250687178868181</v>
+        <v>8.547109886358177</v>
       </c>
       <c r="K2">
-        <v>9.846655373494844</v>
+        <v>14.98036617211361</v>
       </c>
       <c r="L2">
-        <v>7.275477741109301</v>
+        <v>12.56499159740429</v>
       </c>
       <c r="M2">
-        <v>11.13407941751497</v>
+        <v>19.0298370435161</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.07109483248896</v>
+        <v>19.31283106194822</v>
       </c>
       <c r="C3">
-        <v>5.728761343433431</v>
+        <v>5.507570739449757</v>
       </c>
       <c r="D3">
-        <v>9.180055378445429</v>
+        <v>13.88175505347496</v>
       </c>
       <c r="E3">
-        <v>8.740512710400674</v>
+        <v>14.12760739772882</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>72.06306706674755</v>
+        <v>80.93854641563044</v>
       </c>
       <c r="H3">
-        <v>20.94051112468015</v>
+        <v>27.19037776352994</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.256457766271346</v>
+        <v>8.548235606665781</v>
       </c>
       <c r="K3">
-        <v>9.455188041902071</v>
+        <v>14.98763983043296</v>
       </c>
       <c r="L3">
-        <v>7.247124198220574</v>
+        <v>12.58777098321887</v>
       </c>
       <c r="M3">
-        <v>10.98328232347413</v>
+        <v>19.06426905374</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.71844741218436</v>
+        <v>19.30783572805636</v>
       </c>
       <c r="C4">
-        <v>5.63370677608354</v>
+        <v>5.467958352679278</v>
       </c>
       <c r="D4">
-        <v>9.074501082500658</v>
+        <v>13.88324079974102</v>
       </c>
       <c r="E4">
-        <v>8.728927706527159</v>
+        <v>14.13755067989542</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>70.72089358265413</v>
+        <v>80.61811373695973</v>
       </c>
       <c r="H4">
-        <v>20.71209042571072</v>
+        <v>27.15171724372863</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.260147452491154</v>
+        <v>8.548970536547303</v>
       </c>
       <c r="K4">
-        <v>9.216181055209443</v>
+        <v>14.99635513786956</v>
       </c>
       <c r="L4">
-        <v>7.233108151779982</v>
+        <v>12.60334933111026</v>
       </c>
       <c r="M4">
-        <v>10.89711675459388</v>
+        <v>19.08875455146821</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.57481308162356</v>
+        <v>19.30715959359921</v>
       </c>
       <c r="C5">
-        <v>5.594364249849558</v>
+        <v>5.451410753095096</v>
       </c>
       <c r="D5">
-        <v>9.032373498142032</v>
+        <v>13.88438263455601</v>
       </c>
       <c r="E5">
-        <v>8.724860430914577</v>
+        <v>14.14190557527136</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>70.17409399570272</v>
+        <v>80.48916178843548</v>
       </c>
       <c r="H5">
-        <v>20.6200849855669</v>
+        <v>27.13651673514709</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.261687885586953</v>
+        <v>8.549281039748521</v>
       </c>
       <c r="K5">
-        <v>9.119271016639452</v>
+        <v>15.0009753467167</v>
       </c>
       <c r="L5">
-        <v>7.228232073315068</v>
+        <v>12.61009820834672</v>
       </c>
       <c r="M5">
-        <v>10.86361429165141</v>
+        <v>19.09957351615929</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.55097379471644</v>
+        <v>19.30712950878075</v>
       </c>
       <c r="C6">
-        <v>5.587794477890378</v>
+        <v>5.448638605008783</v>
       </c>
       <c r="D6">
-        <v>9.025432349673361</v>
+        <v>13.88460465149516</v>
       </c>
       <c r="E6">
-        <v>8.724224141735341</v>
+        <v>14.14264700952429</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>70.0833200347633</v>
+        <v>80.46784967469203</v>
       </c>
       <c r="H6">
-        <v>20.60487318992222</v>
+        <v>27.13402629184223</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.261945900141148</v>
+        <v>8.549333264228142</v>
       </c>
       <c r="K6">
-        <v>9.103213155750307</v>
+        <v>15.00180706444577</v>
       </c>
       <c r="L6">
-        <v>7.227472353127062</v>
+        <v>12.61124305710528</v>
       </c>
       <c r="M6">
-        <v>10.85814832466666</v>
+        <v>19.10142078517563</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.71650971625841</v>
+        <v>19.30782110132124</v>
       </c>
       <c r="C7">
-        <v>5.633178661306836</v>
+        <v>5.467736824771887</v>
       </c>
       <c r="D7">
-        <v>9.073929319965131</v>
+        <v>13.88325402619911</v>
       </c>
       <c r="E7">
-        <v>8.728870225243108</v>
+        <v>14.13760818448812</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>70.71351808256715</v>
+        <v>80.61636796791205</v>
       </c>
       <c r="H7">
-        <v>20.71084521969659</v>
+        <v>27.15150999545724</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.260168078047379</v>
+        <v>8.548974679486619</v>
       </c>
       <c r="K7">
-        <v>9.214871915895879</v>
+        <v>14.99641312100877</v>
       </c>
       <c r="L7">
-        <v>7.233039031435926</v>
+        <v>12.60343872650772</v>
       </c>
       <c r="M7">
-        <v>10.89665841515956</v>
+        <v>19.08889705500956</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.44704067140233</v>
+        <v>19.32279955936482</v>
       </c>
       <c r="C8">
-        <v>5.828152271911804</v>
+        <v>5.548451666216502</v>
       </c>
       <c r="D8">
-        <v>9.295667797242233</v>
+        <v>13.88200085460966</v>
       </c>
       <c r="E8">
-        <v>8.755148783510689</v>
+        <v>14.11803136351854</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>73.49461543342598</v>
+        <v>81.2858423616495</v>
       </c>
       <c r="H8">
-        <v>21.18789084105013</v>
+        <v>27.23351244391575</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.252646466681721</v>
+        <v>8.547488967711569</v>
       </c>
       <c r="K8">
-        <v>9.711479282686355</v>
+        <v>14.98199246798045</v>
       </c>
       <c r="L8">
-        <v>7.2649865630634</v>
+        <v>12.57251576954199</v>
       </c>
       <c r="M8">
-        <v>11.08074898593572</v>
+        <v>19.04101517849546</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.8671761419191</v>
+        <v>19.39476900726898</v>
       </c>
       <c r="C9">
-        <v>6.192426701502662</v>
+        <v>5.69384673493118</v>
       </c>
       <c r="D9">
-        <v>9.757029939186198</v>
+        <v>13.89640062435526</v>
       </c>
       <c r="E9">
-        <v>8.828400021700046</v>
+        <v>14.08917061912111</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>78.92418564633441</v>
+        <v>82.64459933908637</v>
       </c>
       <c r="H9">
-        <v>22.15619225262135</v>
+        <v>27.41142822816109</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.239059904351575</v>
+        <v>8.544921755483815</v>
       </c>
       <c r="K9">
-        <v>10.69049360294204</v>
+        <v>14.98739684551558</v>
       </c>
       <c r="L9">
-        <v>7.35535836809032</v>
+        <v>12.52449103121321</v>
       </c>
       <c r="M9">
-        <v>11.49286744573179</v>
+        <v>18.97364885786973</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.89441024678823</v>
+        <v>19.47328000831292</v>
       </c>
       <c r="C10">
-        <v>6.45025484408364</v>
+        <v>5.792749791212414</v>
       </c>
       <c r="D10">
-        <v>10.11118617474867</v>
+        <v>13.91719112618346</v>
       </c>
       <c r="E10">
-        <v>8.89640142640139</v>
+        <v>14.07375336791664</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>82.88175693964128</v>
+        <v>83.66644095565979</v>
       </c>
       <c r="H10">
-        <v>22.88714538718964</v>
+        <v>27.55226181828962</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.229790524788146</v>
+        <v>8.543245690375882</v>
       </c>
       <c r="K10">
-        <v>11.60013514434777</v>
+        <v>15.01181843861911</v>
       </c>
       <c r="L10">
-        <v>7.439782862585689</v>
+        <v>12.49687804601807</v>
       </c>
       <c r="M10">
-        <v>11.82700392828214</v>
+        <v>18.94031794642191</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.35703035000027</v>
+        <v>19.51446867436134</v>
       </c>
       <c r="C11">
-        <v>6.565757286843249</v>
+        <v>5.836012603126415</v>
       </c>
       <c r="D11">
-        <v>10.27544829024353</v>
+        <v>13.92884839446381</v>
       </c>
       <c r="E11">
-        <v>8.930636564782141</v>
+        <v>14.06799113724774</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>84.67309395070372</v>
+        <v>84.13543338756133</v>
       </c>
       <c r="H11">
-        <v>23.22395320333864</v>
+        <v>27.61845400739077</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.225730230341857</v>
+        <v>8.542528605203181</v>
       </c>
       <c r="K11">
-        <v>12.05339867828083</v>
+        <v>15.02733744707352</v>
       </c>
       <c r="L11">
-        <v>7.482359212184011</v>
+        <v>12.4859772716574</v>
       </c>
       <c r="M11">
-        <v>11.98587765714551</v>
+        <v>18.92865975742615</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.53148152166156</v>
+        <v>19.53084308050881</v>
       </c>
       <c r="C12">
-        <v>6.609271998627269</v>
+        <v>5.852145557952025</v>
       </c>
       <c r="D12">
-        <v>10.33809599293217</v>
+        <v>13.93357705736814</v>
       </c>
       <c r="E12">
-        <v>8.944094594852993</v>
+        <v>14.06598858265113</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>85.35004399651432</v>
+        <v>84.313539380809</v>
       </c>
       <c r="H12">
-        <v>23.3521239456353</v>
+        <v>27.64381797705997</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.224215456218298</v>
+        <v>8.542263571916649</v>
       </c>
       <c r="K12">
-        <v>12.22231174210985</v>
+        <v>15.03384433609729</v>
       </c>
       <c r="L12">
-        <v>7.499103665600327</v>
+        <v>12.48208779336517</v>
       </c>
       <c r="M12">
-        <v>12.04703469469015</v>
+        <v>18.92474833159933</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.49394358572224</v>
+        <v>19.52728216503339</v>
       </c>
       <c r="C13">
-        <v>6.59990968666395</v>
+        <v>5.848682161775645</v>
       </c>
       <c r="D13">
-        <v>10.32458396407729</v>
+        <v>13.93254471016077</v>
       </c>
       <c r="E13">
-        <v>8.941173877707705</v>
+        <v>14.06641189348842</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>85.20431323749463</v>
+        <v>84.2751598594465</v>
       </c>
       <c r="H13">
-        <v>23.32449181023224</v>
+        <v>27.63834224042964</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.224540671713916</v>
+        <v>8.542320362175362</v>
       </c>
       <c r="K13">
-        <v>12.18605294948777</v>
+        <v>15.03241500336569</v>
       </c>
       <c r="L13">
-        <v>7.495469432737363</v>
+        <v>12.4829148650095</v>
       </c>
       <c r="M13">
-        <v>12.03381902826059</v>
+        <v>18.92556835529199</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.37139748376786</v>
+        <v>19.51580029215814</v>
       </c>
       <c r="C14">
-        <v>6.569341540632982</v>
+        <v>5.837344882316937</v>
       </c>
       <c r="D14">
-        <v>10.28059346069938</v>
+        <v>13.92923113733507</v>
       </c>
       <c r="E14">
-        <v>8.931733750586702</v>
+        <v>14.06782279145892</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>84.72881518173267</v>
+        <v>84.15007658853747</v>
       </c>
       <c r="H14">
-        <v>23.23448517780827</v>
+        <v>27.62053477885885</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.225605150657659</v>
+        <v>8.542506670326919</v>
       </c>
       <c r="K14">
-        <v>12.06734933261012</v>
+        <v>15.02786016789038</v>
       </c>
       <c r="L14">
-        <v>7.483724197779757</v>
+        <v>12.48565250609428</v>
       </c>
       <c r="M14">
-        <v>11.9908890891164</v>
+        <v>18.9283278797568</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.29623771143333</v>
+        <v>19.50886820786727</v>
       </c>
       <c r="C15">
-        <v>6.550589625771044</v>
+        <v>5.830367916082546</v>
       </c>
       <c r="D15">
-        <v>10.2537058283825</v>
+        <v>13.92724234793199</v>
       </c>
       <c r="E15">
-        <v>8.926016319720672</v>
+        <v>14.06871036712026</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>84.4373762682707</v>
+        <v>84.07352308699694</v>
       </c>
       <c r="H15">
-        <v>23.1794359492753</v>
+        <v>27.60966583431941</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.226260150129383</v>
+        <v>8.542621637059005</v>
       </c>
       <c r="K15">
-        <v>11.99428776059908</v>
+        <v>15.02515213959733</v>
       </c>
       <c r="L15">
-        <v>7.476611542085646</v>
+        <v>12.48736042666842</v>
       </c>
       <c r="M15">
-        <v>11.96472310822433</v>
+        <v>18.93008368862352</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.86407697868507</v>
+        <v>19.47069754992644</v>
       </c>
       <c r="C16">
-        <v>6.442673285657477</v>
+        <v>5.789887578743518</v>
       </c>
       <c r="D16">
-        <v>10.10051389784851</v>
+        <v>13.91647339224938</v>
       </c>
       <c r="E16">
-        <v>8.894232117355559</v>
+        <v>14.07415508270854</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>82.76449784253796</v>
+        <v>83.63586722106537</v>
       </c>
       <c r="H16">
-        <v>22.8652213454391</v>
+        <v>27.54797817077764</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.230059043751192</v>
+        <v>8.543293465396074</v>
       </c>
       <c r="K16">
-        <v>11.57012597750571</v>
+        <v>15.01089264759296</v>
       </c>
       <c r="L16">
-        <v>7.437086174074646</v>
+        <v>12.49762381984253</v>
       </c>
       <c r="M16">
-        <v>11.81675994217095</v>
+        <v>18.94115030029476</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.59771023492908</v>
+        <v>19.44867628306267</v>
       </c>
       <c r="C17">
-        <v>6.37603492706294</v>
+        <v>5.764610598077424</v>
       </c>
       <c r="D17">
-        <v>10.00733596379759</v>
+        <v>13.9104290028405</v>
       </c>
       <c r="E17">
-        <v>8.875592261830766</v>
+        <v>14.07781538475068</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>81.73584520306414</v>
+        <v>83.36838044571032</v>
       </c>
       <c r="H17">
-        <v>22.67356546695644</v>
+        <v>27.51067427790116</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.232429771909751</v>
+        <v>8.543717220689931</v>
       </c>
       <c r="K17">
-        <v>11.3049490204122</v>
+        <v>15.0032717344433</v>
       </c>
       <c r="L17">
-        <v>7.413922149564536</v>
+        <v>12.50434511978641</v>
       </c>
       <c r="M17">
-        <v>11.72775328086682</v>
+        <v>18.94883642451906</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.44406491469666</v>
+        <v>19.43652610156467</v>
       </c>
       <c r="C18">
-        <v>6.33753603038179</v>
+        <v>5.74990929836829</v>
       </c>
       <c r="D18">
-        <v>9.95403962728513</v>
+        <v>13.90715959589883</v>
       </c>
       <c r="E18">
-        <v>8.865180584248874</v>
+        <v>14.08003848560025</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>81.14334708143019</v>
+        <v>83.21492526119201</v>
       </c>
       <c r="H18">
-        <v>22.56373292586819</v>
+        <v>27.48941866348632</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.2338080508248</v>
+        <v>8.543965224225991</v>
       </c>
       <c r="K18">
-        <v>11.15056943121863</v>
+        <v>14.99930370823296</v>
       </c>
       <c r="L18">
-        <v>7.400990050161474</v>
+        <v>12.50836735272239</v>
       </c>
       <c r="M18">
-        <v>11.67720537011979</v>
+        <v>18.9535871596354</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.39197034239147</v>
+        <v>19.43250114493713</v>
       </c>
       <c r="C19">
-        <v>6.324470794059856</v>
+        <v>5.744903792334837</v>
       </c>
       <c r="D19">
-        <v>9.936045780778985</v>
+        <v>13.90608826883687</v>
       </c>
       <c r="E19">
-        <v>8.861707957366091</v>
+        <v>14.08081143323564</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>80.94259669418109</v>
+        <v>83.1630386773797</v>
       </c>
       <c r="H19">
-        <v>22.52661452446032</v>
+        <v>27.48225654799769</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.234277229705617</v>
+        <v>8.544049927834864</v>
       </c>
       <c r="K19">
-        <v>11.09797736972932</v>
+        <v>14.99803164208557</v>
       </c>
       <c r="L19">
-        <v>7.396678013291298</v>
+        <v>12.50975607049678</v>
       </c>
       <c r="M19">
-        <v>11.66020159129263</v>
+        <v>18.95525235056963</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.62611132154487</v>
+        <v>19.45096716274626</v>
       </c>
       <c r="C20">
-        <v>6.383146093335067</v>
+        <v>5.767318217939289</v>
       </c>
       <c r="D20">
-        <v>10.01722423839157</v>
+        <v>13.9110510112415</v>
       </c>
       <c r="E20">
-        <v>8.87754434184772</v>
+        <v>14.07741355145077</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>81.84543538777923</v>
+        <v>83.39681450687443</v>
       </c>
       <c r="H20">
-        <v>22.6939258192207</v>
+        <v>27.51462463194614</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.232175880814454</v>
+        <v>8.543671669302114</v>
       </c>
       <c r="K20">
-        <v>11.33336904445974</v>
+        <v>15.00404003561774</v>
       </c>
       <c r="L20">
-        <v>7.416347354008076</v>
+        <v>12.50361345014764</v>
       </c>
       <c r="M20">
-        <v>11.73716126017742</v>
+        <v>18.94798408627712</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.40741247208704</v>
+        <v>19.51915178951385</v>
       </c>
       <c r="C21">
-        <v>6.578325923702796</v>
+        <v>5.840681702516527</v>
       </c>
       <c r="D21">
-        <v>10.2935024951948</v>
+        <v>13.93019590064725</v>
       </c>
       <c r="E21">
-        <v>8.934492979146832</v>
+        <v>14.06740350914706</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>84.86851860736981</v>
+        <v>84.18680347927737</v>
       </c>
       <c r="H21">
-        <v>23.26090509242496</v>
+        <v>27.62575722305062</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.225291866689455</v>
+        <v>8.542451770487267</v>
       </c>
       <c r="K21">
-        <v>12.10228866690494</v>
+        <v>15.02918096520592</v>
       </c>
       <c r="L21">
-        <v>7.487157003146806</v>
+        <v>12.48484192729477</v>
       </c>
       <c r="M21">
-        <v>12.00347157503993</v>
+        <v>18.92750368745306</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.91375879067784</v>
+        <v>19.56823885022645</v>
       </c>
       <c r="C22">
-        <v>6.704603376065561</v>
+        <v>5.887172875620553</v>
       </c>
       <c r="D22">
-        <v>10.47666151742671</v>
+        <v>13.94453915047782</v>
       </c>
       <c r="E22">
-        <v>8.974601211006533</v>
+        <v>14.06190728143179</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>86.83618691653801</v>
+        <v>84.70603058039245</v>
       </c>
       <c r="H22">
-        <v>23.63513826738875</v>
+        <v>27.70012458846127</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.220925692580851</v>
+        <v>8.541692443562159</v>
       </c>
       <c r="K22">
-        <v>12.58897370122381</v>
+        <v>15.04928287182337</v>
       </c>
       <c r="L22">
-        <v>7.537070312395085</v>
+        <v>12.4739630882318</v>
       </c>
       <c r="M22">
-        <v>12.18332680886482</v>
+        <v>18.91705165087063</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.64391596050651</v>
+        <v>19.54162973816722</v>
       </c>
       <c r="C23">
-        <v>6.637311872857264</v>
+        <v>5.862493251760389</v>
       </c>
       <c r="D23">
-        <v>10.37866994983703</v>
+        <v>13.93671706671872</v>
       </c>
       <c r="E23">
-        <v>8.952923598000405</v>
+        <v>14.06474516981869</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>85.78675699363293</v>
+        <v>84.42867122695657</v>
       </c>
       <c r="H23">
-        <v>23.43505956828639</v>
+        <v>27.66027701557451</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.223243721606361</v>
+        <v>8.542094242364939</v>
       </c>
       <c r="K23">
-        <v>12.33063581538571</v>
+        <v>15.03821969138265</v>
       </c>
       <c r="L23">
-        <v>7.510090394215471</v>
+        <v>12.47964232506611</v>
       </c>
       <c r="M23">
-        <v>12.08680007519758</v>
+        <v>18.92236196733676</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.61327276613483</v>
+        <v>19.44992986628554</v>
       </c>
       <c r="C24">
-        <v>6.379931721881738</v>
+        <v>5.766094630042653</v>
       </c>
       <c r="D24">
-        <v>10.01275289870945</v>
+        <v>13.91076916071427</v>
       </c>
       <c r="E24">
-        <v>8.876660859074418</v>
+        <v>14.07759485038659</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>81.79589312040333</v>
+        <v>83.3839584439831</v>
       </c>
       <c r="H24">
-        <v>22.68471980523967</v>
+        <v>27.51283808167387</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.232290617293633</v>
+        <v>8.543692249438694</v>
       </c>
       <c r="K24">
-        <v>11.32052635747083</v>
+        <v>15.0036913988701</v>
       </c>
       <c r="L24">
-        <v>7.41524972088253</v>
+        <v>12.50394374560405</v>
       </c>
       <c r="M24">
-        <v>11.73290597202366</v>
+        <v>18.94836839458634</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.48531986669729</v>
+        <v>19.37076896465189</v>
       </c>
       <c r="C25">
-        <v>6.09570310649785</v>
+        <v>5.655899917147366</v>
       </c>
       <c r="D25">
-        <v>9.629487334789722</v>
+        <v>13.8907063674551</v>
       </c>
       <c r="E25">
-        <v>8.806163600506867</v>
+        <v>14.09596030125861</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>77.45989147171004</v>
+        <v>82.2725518482705</v>
       </c>
       <c r="H25">
-        <v>21.89079455111368</v>
+        <v>27.36149620462859</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.242610703233712</v>
+        <v>8.545579291730409</v>
       </c>
       <c r="K25">
-        <v>10.42579596307756</v>
+        <v>14.98233469394979</v>
       </c>
       <c r="L25">
-        <v>7.327827582227135</v>
+        <v>12.5361344115246</v>
       </c>
       <c r="M25">
-        <v>11.37588581040721</v>
+        <v>18.98903353682016</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_118/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_118/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.3297503425517</v>
+        <v>13.64452171646841</v>
       </c>
       <c r="C2">
-        <v>5.569451790786747</v>
+        <v>5.879720093023725</v>
       </c>
       <c r="D2">
-        <v>13.88280405473222</v>
+        <v>9.357583530032649</v>
       </c>
       <c r="E2">
-        <v>14.11337271956395</v>
+        <v>8.763705146439069</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>81.47050279165461</v>
+        <v>74.24727415001803</v>
       </c>
       <c r="H2">
-        <v>27.25689947368624</v>
+        <v>21.31939442981292</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.547109886358177</v>
+        <v>5.250687178868182</v>
       </c>
       <c r="K2">
-        <v>14.98036617211361</v>
+        <v>9.846655373494793</v>
       </c>
       <c r="L2">
-        <v>12.56499159740429</v>
+        <v>7.275477741109292</v>
       </c>
       <c r="M2">
-        <v>19.0298370435161</v>
+        <v>11.13407941751492</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.31283106194822</v>
+        <v>13.07109483248903</v>
       </c>
       <c r="C3">
-        <v>5.507570739449757</v>
+        <v>5.728761343433154</v>
       </c>
       <c r="D3">
-        <v>13.88175505347496</v>
+        <v>9.180055378445136</v>
       </c>
       <c r="E3">
-        <v>14.12760739772882</v>
+        <v>8.740512710400452</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>80.93854641563044</v>
+        <v>72.06306706674771</v>
       </c>
       <c r="H3">
-        <v>27.19037776352994</v>
+        <v>20.94051112468019</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.548235606665781</v>
+        <v>5.256457766271311</v>
       </c>
       <c r="K3">
-        <v>14.98763983043296</v>
+        <v>9.455188041902138</v>
       </c>
       <c r="L3">
-        <v>12.58777098321887</v>
+        <v>7.24712419822041</v>
       </c>
       <c r="M3">
-        <v>19.06426905374</v>
+        <v>10.98328232347413</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.30783572805636</v>
+        <v>12.7184474121842</v>
       </c>
       <c r="C4">
-        <v>5.467958352679278</v>
+        <v>5.633706776083409</v>
       </c>
       <c r="D4">
-        <v>13.88324079974102</v>
+        <v>9.074501082500598</v>
       </c>
       <c r="E4">
-        <v>14.13755067989542</v>
+        <v>8.728927706527218</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>80.61811373695973</v>
+        <v>70.72089358265384</v>
       </c>
       <c r="H4">
-        <v>27.15171724372863</v>
+        <v>20.71209042571059</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8.548970536547303</v>
+        <v>5.260147452491255</v>
       </c>
       <c r="K4">
-        <v>14.99635513786956</v>
+        <v>9.216181055209367</v>
       </c>
       <c r="L4">
-        <v>12.60334933111026</v>
+        <v>7.233108151780038</v>
       </c>
       <c r="M4">
-        <v>19.08875455146821</v>
+        <v>10.89711675459383</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.30715959359921</v>
+        <v>12.57481308162358</v>
       </c>
       <c r="C5">
-        <v>5.451410753095096</v>
+        <v>5.594364249849697</v>
       </c>
       <c r="D5">
-        <v>13.88438263455601</v>
+        <v>9.032373498142116</v>
       </c>
       <c r="E5">
-        <v>14.14190557527136</v>
+        <v>8.724860430914568</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>80.48916178843548</v>
+        <v>70.17409399570252</v>
       </c>
       <c r="H5">
-        <v>27.13651673514709</v>
+        <v>20.62008498556676</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.549281039748521</v>
+        <v>5.261687885586885</v>
       </c>
       <c r="K5">
-        <v>15.0009753467167</v>
+        <v>9.119271016639422</v>
       </c>
       <c r="L5">
-        <v>12.61009820834672</v>
+        <v>7.228232073315016</v>
       </c>
       <c r="M5">
-        <v>19.09957351615929</v>
+        <v>10.86361429165138</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.30712950878075</v>
+        <v>12.55097379471633</v>
       </c>
       <c r="C6">
-        <v>5.448638605008783</v>
+        <v>5.587794477890116</v>
       </c>
       <c r="D6">
-        <v>13.88460465149516</v>
+        <v>9.025432349673343</v>
       </c>
       <c r="E6">
-        <v>14.14264700952429</v>
+        <v>8.724224141735446</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>80.46784967469203</v>
+        <v>70.08332003476298</v>
       </c>
       <c r="H6">
-        <v>27.13402629184223</v>
+        <v>20.60487318992204</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.549333264228142</v>
+        <v>5.261945900141248</v>
       </c>
       <c r="K6">
-        <v>15.00180706444577</v>
+        <v>9.103213155750296</v>
       </c>
       <c r="L6">
-        <v>12.61124305710528</v>
+        <v>7.227472353127203</v>
       </c>
       <c r="M6">
-        <v>19.10142078517563</v>
+        <v>10.85814832466666</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.30782110132124</v>
+        <v>12.71650971625849</v>
       </c>
       <c r="C7">
-        <v>5.467736824771887</v>
+        <v>5.633178661307105</v>
       </c>
       <c r="D7">
-        <v>13.88325402619911</v>
+        <v>9.073929319965165</v>
       </c>
       <c r="E7">
-        <v>14.13760818448812</v>
+        <v>8.72887022524317</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>80.61636796791205</v>
+        <v>70.71351808256739</v>
       </c>
       <c r="H7">
-        <v>27.15150999545724</v>
+        <v>20.71084521969667</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8.548974679486619</v>
+        <v>5.260168078047412</v>
       </c>
       <c r="K7">
-        <v>14.99641312100877</v>
+        <v>9.214871915895914</v>
       </c>
       <c r="L7">
-        <v>12.60343872650772</v>
+        <v>7.233039031435876</v>
       </c>
       <c r="M7">
-        <v>19.08889705500956</v>
+        <v>10.89665841515962</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.32279955936482</v>
+        <v>13.44704067140232</v>
       </c>
       <c r="C8">
-        <v>5.548451666216502</v>
+        <v>5.828152271911796</v>
       </c>
       <c r="D8">
-        <v>13.88200085460966</v>
+        <v>9.295667797242233</v>
       </c>
       <c r="E8">
-        <v>14.11803136351854</v>
+        <v>8.755148783510606</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>81.2858423616495</v>
+        <v>73.4946154334262</v>
       </c>
       <c r="H8">
-        <v>27.23351244391575</v>
+        <v>21.18789084105009</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.547488967711569</v>
+        <v>5.252646466681658</v>
       </c>
       <c r="K8">
-        <v>14.98199246798045</v>
+        <v>9.711479282686357</v>
       </c>
       <c r="L8">
-        <v>12.57251576954199</v>
+        <v>7.264986563063375</v>
       </c>
       <c r="M8">
-        <v>19.04101517849546</v>
+        <v>11.08074898593574</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.39476900726898</v>
+        <v>14.86717614191909</v>
       </c>
       <c r="C9">
-        <v>5.69384673493118</v>
+        <v>6.192426701502666</v>
       </c>
       <c r="D9">
-        <v>13.89640062435526</v>
+        <v>9.7570299391862</v>
       </c>
       <c r="E9">
-        <v>14.08917061912111</v>
+        <v>8.828400021699887</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>82.64459933908637</v>
+        <v>78.92418564633468</v>
       </c>
       <c r="H9">
-        <v>27.41142822816109</v>
+        <v>22.15619225262148</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.544921755483815</v>
+        <v>5.239059904351476</v>
       </c>
       <c r="K9">
-        <v>14.98739684551558</v>
+        <v>10.69049360294206</v>
       </c>
       <c r="L9">
-        <v>12.52449103121321</v>
+        <v>7.355358368090275</v>
       </c>
       <c r="M9">
-        <v>18.97364885786973</v>
+        <v>11.49286744573174</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.47328000831292</v>
+        <v>15.89441024678818</v>
       </c>
       <c r="C10">
-        <v>5.792749791212414</v>
+        <v>6.450254844084285</v>
       </c>
       <c r="D10">
-        <v>13.91719112618346</v>
+        <v>10.11118617474871</v>
       </c>
       <c r="E10">
-        <v>14.07375336791664</v>
+        <v>8.896401426401374</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>83.66644095565979</v>
+        <v>82.88175693964133</v>
       </c>
       <c r="H10">
-        <v>27.55226181828962</v>
+        <v>22.88714538718959</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.543245690375882</v>
+        <v>5.229790524788212</v>
       </c>
       <c r="K10">
-        <v>15.01181843861911</v>
+        <v>11.6001351443479</v>
       </c>
       <c r="L10">
-        <v>12.49687804601807</v>
+        <v>7.439782862585625</v>
       </c>
       <c r="M10">
-        <v>18.94031794642191</v>
+        <v>11.82700392828201</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.51446867436134</v>
+        <v>16.35703035000034</v>
       </c>
       <c r="C11">
-        <v>5.836012603126415</v>
+        <v>6.565757286842984</v>
       </c>
       <c r="D11">
-        <v>13.92884839446381</v>
+        <v>10.27544829024359</v>
       </c>
       <c r="E11">
-        <v>14.06799113724774</v>
+        <v>8.930636564782118</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>84.13543338756133</v>
+        <v>84.67309395070369</v>
       </c>
       <c r="H11">
-        <v>27.61845400739077</v>
+        <v>23.22395320333863</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.542528605203181</v>
+        <v>5.225730230341792</v>
       </c>
       <c r="K11">
-        <v>15.02733744707352</v>
+        <v>12.05339867828081</v>
       </c>
       <c r="L11">
-        <v>12.4859772716574</v>
+        <v>7.482359212184075</v>
       </c>
       <c r="M11">
-        <v>18.92865975742615</v>
+        <v>11.98587765714554</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.53084308050881</v>
+        <v>16.53148152166153</v>
       </c>
       <c r="C12">
-        <v>5.852145557952025</v>
+        <v>6.609271998627389</v>
       </c>
       <c r="D12">
-        <v>13.93357705736814</v>
+        <v>10.3380959929322</v>
       </c>
       <c r="E12">
-        <v>14.06598858265113</v>
+        <v>8.944094594852865</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>84.313539380809</v>
+        <v>85.35004399651417</v>
       </c>
       <c r="H12">
-        <v>27.64381797705997</v>
+        <v>23.35212394563526</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.542263571916649</v>
+        <v>5.224215456218168</v>
       </c>
       <c r="K12">
-        <v>15.03384433609729</v>
+        <v>12.22231174210989</v>
       </c>
       <c r="L12">
-        <v>12.48208779336517</v>
+        <v>7.499103665600241</v>
       </c>
       <c r="M12">
-        <v>18.92474833159933</v>
+        <v>12.04703469469006</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.52728216503339</v>
+        <v>16.49394358572224</v>
       </c>
       <c r="C13">
-        <v>5.848682161775645</v>
+        <v>6.599909686664087</v>
       </c>
       <c r="D13">
-        <v>13.93254471016077</v>
+        <v>10.32458396407735</v>
       </c>
       <c r="E13">
-        <v>14.06641189348842</v>
+        <v>8.941173877707733</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>84.2751598594465</v>
+        <v>85.20431323749405</v>
       </c>
       <c r="H13">
-        <v>27.63834224042964</v>
+        <v>23.32449181023221</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.542320362175362</v>
+        <v>5.224540671713883</v>
       </c>
       <c r="K13">
-        <v>15.03241500336569</v>
+        <v>12.18605294948779</v>
       </c>
       <c r="L13">
-        <v>12.4829148650095</v>
+        <v>7.495469432737351</v>
       </c>
       <c r="M13">
-        <v>18.92556835529199</v>
+        <v>12.03381902826057</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.51580029215814</v>
+        <v>16.37139748376785</v>
       </c>
       <c r="C14">
-        <v>5.837344882316937</v>
+        <v>6.569341540633255</v>
       </c>
       <c r="D14">
-        <v>13.92923113733507</v>
+        <v>10.28059346069957</v>
       </c>
       <c r="E14">
-        <v>14.06782279145892</v>
+        <v>8.931733750586853</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>84.15007658853747</v>
+        <v>84.72881518173267</v>
       </c>
       <c r="H14">
-        <v>27.62053477885885</v>
+        <v>23.23448517780827</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.542506670326919</v>
+        <v>5.225605150657659</v>
       </c>
       <c r="K14">
-        <v>15.02786016789038</v>
+        <v>12.06734933261015</v>
       </c>
       <c r="L14">
-        <v>12.48565250609428</v>
+        <v>7.483724197779813</v>
       </c>
       <c r="M14">
-        <v>18.9283278797568</v>
+        <v>11.99088908911643</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.50886820786727</v>
+        <v>16.29623771143332</v>
       </c>
       <c r="C15">
-        <v>5.830367916082546</v>
+        <v>6.550589625770899</v>
       </c>
       <c r="D15">
-        <v>13.92724234793199</v>
+        <v>10.25370582838251</v>
       </c>
       <c r="E15">
-        <v>14.06871036712026</v>
+        <v>8.926016319720736</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>84.07352308699694</v>
+        <v>84.43737626827075</v>
       </c>
       <c r="H15">
-        <v>27.60966583431941</v>
+        <v>23.17943594927536</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.542621637059005</v>
+        <v>5.226260150129452</v>
       </c>
       <c r="K15">
-        <v>15.02515213959733</v>
+        <v>11.99428776059912</v>
       </c>
       <c r="L15">
-        <v>12.48736042666842</v>
+        <v>7.476611542085704</v>
       </c>
       <c r="M15">
-        <v>18.93008368862352</v>
+        <v>11.96472310822434</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.47069754992644</v>
+        <v>15.86407697868505</v>
       </c>
       <c r="C16">
-        <v>5.789887578743518</v>
+        <v>6.442673285657738</v>
       </c>
       <c r="D16">
-        <v>13.91647339224938</v>
+        <v>10.10051389784854</v>
       </c>
       <c r="E16">
-        <v>14.07415508270854</v>
+        <v>8.894232117355578</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>83.63586722106537</v>
+        <v>82.76449784253781</v>
       </c>
       <c r="H16">
-        <v>27.54797817077764</v>
+        <v>22.86522134543905</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8.543293465396074</v>
+        <v>5.230059043751158</v>
       </c>
       <c r="K16">
-        <v>15.01089264759296</v>
+        <v>11.5701259775058</v>
       </c>
       <c r="L16">
-        <v>12.49762381984253</v>
+        <v>7.437086174074632</v>
       </c>
       <c r="M16">
-        <v>18.94115030029476</v>
+        <v>11.81675994217091</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.44867628306267</v>
+        <v>15.59771023492902</v>
       </c>
       <c r="C17">
-        <v>5.764610598077424</v>
+        <v>6.376034927062831</v>
       </c>
       <c r="D17">
-        <v>13.9104290028405</v>
+        <v>10.0073359637975</v>
       </c>
       <c r="E17">
-        <v>14.07781538475068</v>
+        <v>8.875592261830601</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>83.36838044571032</v>
+        <v>81.73584520306372</v>
       </c>
       <c r="H17">
-        <v>27.51067427790116</v>
+        <v>22.67356546695625</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8.543717220689931</v>
+        <v>5.232429771909618</v>
       </c>
       <c r="K17">
-        <v>15.0032717344433</v>
+        <v>11.30494902041221</v>
       </c>
       <c r="L17">
-        <v>12.50434511978641</v>
+        <v>7.413922149564455</v>
       </c>
       <c r="M17">
-        <v>18.94883642451906</v>
+        <v>11.72775328086673</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.43652610156467</v>
+        <v>15.44406491469667</v>
       </c>
       <c r="C18">
-        <v>5.74990929836829</v>
+        <v>6.337536030381783</v>
       </c>
       <c r="D18">
-        <v>13.90715959589883</v>
+        <v>9.954039627285113</v>
       </c>
       <c r="E18">
-        <v>14.08003848560025</v>
+        <v>8.865180584248913</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>83.21492526119201</v>
+        <v>81.14334708143014</v>
       </c>
       <c r="H18">
-        <v>27.48941866348632</v>
+        <v>22.56373292586823</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>8.543965224225991</v>
+        <v>5.233808050824836</v>
       </c>
       <c r="K18">
-        <v>14.99930370823296</v>
+        <v>11.1505694312186</v>
       </c>
       <c r="L18">
-        <v>12.50836735272239</v>
+        <v>7.400990050161509</v>
       </c>
       <c r="M18">
-        <v>18.9535871596354</v>
+        <v>11.67720537011983</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.43250114493713</v>
+        <v>15.39197034239148</v>
       </c>
       <c r="C19">
-        <v>5.744903792334837</v>
+        <v>6.32447079405974</v>
       </c>
       <c r="D19">
-        <v>13.90608826883687</v>
+        <v>9.936045780778935</v>
       </c>
       <c r="E19">
-        <v>14.08081143323564</v>
+        <v>8.861707957366287</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>83.1630386773797</v>
+        <v>80.94259669418103</v>
       </c>
       <c r="H19">
-        <v>27.48225654799769</v>
+        <v>22.52661452446038</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>8.544049927834864</v>
+        <v>5.234277229705814</v>
       </c>
       <c r="K19">
-        <v>14.99803164208557</v>
+        <v>11.09797736972924</v>
       </c>
       <c r="L19">
-        <v>12.50975607049678</v>
+        <v>7.396678013291407</v>
       </c>
       <c r="M19">
-        <v>18.95525235056963</v>
+        <v>11.66020159129275</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.45096716274626</v>
+        <v>15.62611132154484</v>
       </c>
       <c r="C20">
-        <v>5.767318217939289</v>
+        <v>6.383146093335185</v>
       </c>
       <c r="D20">
-        <v>13.9110510112415</v>
+        <v>10.01722423839161</v>
       </c>
       <c r="E20">
-        <v>14.07741355145077</v>
+        <v>8.877544341847782</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>83.39681450687443</v>
+        <v>81.84543538777963</v>
       </c>
       <c r="H20">
-        <v>27.51462463194614</v>
+        <v>22.69392581922073</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.543671669302114</v>
+        <v>5.232175880814554</v>
       </c>
       <c r="K20">
-        <v>15.00404003561774</v>
+        <v>11.33336904445977</v>
       </c>
       <c r="L20">
-        <v>12.50361345014764</v>
+        <v>7.416347354008066</v>
       </c>
       <c r="M20">
-        <v>18.94798408627712</v>
+        <v>11.7371612601774</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.51915178951385</v>
+        <v>16.40741247208705</v>
       </c>
       <c r="C21">
-        <v>5.840681702516527</v>
+        <v>6.57832592370267</v>
       </c>
       <c r="D21">
-        <v>13.93019590064725</v>
+        <v>10.29350249519476</v>
       </c>
       <c r="E21">
-        <v>14.06740350914706</v>
+        <v>8.934492979146635</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>84.18680347927737</v>
+        <v>84.86851860736984</v>
       </c>
       <c r="H21">
-        <v>27.62575722305062</v>
+        <v>23.26090509242493</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.542451770487267</v>
+        <v>5.225291866689288</v>
       </c>
       <c r="K21">
-        <v>15.02918096520592</v>
+        <v>12.10228866690499</v>
       </c>
       <c r="L21">
-        <v>12.48484192729477</v>
+        <v>7.487157003146742</v>
       </c>
       <c r="M21">
-        <v>18.92750368745306</v>
+        <v>12.00347157503985</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.56823885022645</v>
+        <v>16.91375879067784</v>
       </c>
       <c r="C22">
-        <v>5.887172875620553</v>
+        <v>6.704603376065431</v>
       </c>
       <c r="D22">
-        <v>13.94453915047782</v>
+        <v>10.47666151742662</v>
       </c>
       <c r="E22">
-        <v>14.06190728143179</v>
+        <v>8.974601211006444</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>84.70603058039245</v>
+        <v>86.83618691653814</v>
       </c>
       <c r="H22">
-        <v>27.70012458846127</v>
+        <v>23.63513826738876</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.541692443562159</v>
+        <v>5.220925692580884</v>
       </c>
       <c r="K22">
-        <v>15.04928287182337</v>
+        <v>12.58897370122381</v>
       </c>
       <c r="L22">
-        <v>12.4739630882318</v>
+        <v>7.537070312395058</v>
       </c>
       <c r="M22">
-        <v>18.91705165087063</v>
+        <v>12.18332680886479</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.54162973816722</v>
+        <v>16.64391596050646</v>
       </c>
       <c r="C23">
-        <v>5.862493251760389</v>
+        <v>6.637311872856874</v>
       </c>
       <c r="D23">
-        <v>13.93671706671872</v>
+        <v>10.378669949837</v>
       </c>
       <c r="E23">
-        <v>14.06474516981869</v>
+        <v>8.952923598000419</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>84.42867122695657</v>
+        <v>85.78675699363339</v>
       </c>
       <c r="H23">
-        <v>27.66027701557451</v>
+        <v>23.4350595682864</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.542094242364939</v>
+        <v>5.223243721606393</v>
       </c>
       <c r="K23">
-        <v>15.03821969138265</v>
+        <v>12.33063581538567</v>
       </c>
       <c r="L23">
-        <v>12.47964232506611</v>
+        <v>7.510090394215509</v>
       </c>
       <c r="M23">
-        <v>18.92236196733676</v>
+        <v>12.08680007519757</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.44992986628554</v>
+        <v>15.61327276613482</v>
       </c>
       <c r="C24">
-        <v>5.766094630042653</v>
+        <v>6.379931721882135</v>
       </c>
       <c r="D24">
-        <v>13.91076916071427</v>
+        <v>10.01275289870962</v>
       </c>
       <c r="E24">
-        <v>14.07759485038659</v>
+        <v>8.8766608590745</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>83.3839584439831</v>
+        <v>81.79589312040346</v>
       </c>
       <c r="H24">
-        <v>27.51283808167387</v>
+        <v>22.68471980523962</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.543692249438694</v>
+        <v>5.232290617293598</v>
       </c>
       <c r="K24">
-        <v>15.0036913988701</v>
+        <v>11.32052635747091</v>
       </c>
       <c r="L24">
-        <v>12.50394374560405</v>
+        <v>7.415249720882477</v>
       </c>
       <c r="M24">
-        <v>18.94836839458634</v>
+        <v>11.73290597202363</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.37076896465189</v>
+        <v>14.48531986669726</v>
       </c>
       <c r="C25">
-        <v>5.655899917147366</v>
+        <v>6.095703106497862</v>
       </c>
       <c r="D25">
-        <v>13.8907063674551</v>
+        <v>9.629487334789873</v>
       </c>
       <c r="E25">
-        <v>14.09596030125861</v>
+        <v>8.806163600506812</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>82.2725518482705</v>
+        <v>77.45989147170967</v>
       </c>
       <c r="H25">
-        <v>27.36149620462859</v>
+        <v>21.8907945511136</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.545579291730409</v>
+        <v>5.242610703233613</v>
       </c>
       <c r="K25">
-        <v>14.98233469394979</v>
+        <v>10.42579596307755</v>
       </c>
       <c r="L25">
-        <v>12.5361344115246</v>
+        <v>7.327827582227124</v>
       </c>
       <c r="M25">
-        <v>18.98903353682016</v>
+        <v>11.37588581040718</v>
       </c>
       <c r="N25">
         <v>0</v>
